--- a/output/inference_results/test_sheets/batch_001/test_sheet (3).xlsx
+++ b/output/inference_results/test_sheets/batch_001/test_sheet (3).xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>x10E9/L</t>
+          <t>10^9/L</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -481,7 +481,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.5~9.5</t>
+          <t>3.5-9.5</t>
         </is>
       </c>
     </row>
@@ -503,13 +503,13 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>x10E12/L</t>
+          <t>10^12/L</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.3~5.8</t>
+          <t>4.3-5.8</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>97.00</t>
+          <t>97.0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>130~175</t>
+          <t>130-175</t>
         </is>
       </c>
     </row>
@@ -563,7 +563,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>x10E9/L</t>
+          <t>10^9/L</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -573,7 +573,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>100~350</t>
+          <t>100-350</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.40~0.50</t>
+          <t>0.40-0.50</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>fl</t>
+          <t>fL</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>82~100</t>
+          <t>82-100</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>27~34</t>
+          <t>27-34</t>
         </is>
       </c>
     </row>
@@ -697,7 +697,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>316~354</t>
+          <t>316-354</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.4~0.75</t>
+          <t>0.4-0.75</t>
         </is>
       </c>
     </row>
@@ -745,14 +745,14 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.2~0.5</t>
+          <t>0.2-0.5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11单核细胞百分率</t>
+          <t>单核细胞百分率</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -762,14 +762,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.080</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.030~0.100</t>
+          <t>0.030-0.100</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.004~0.08</t>
+          <t>0.004-0.08</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0~0.010</t>
+          <t>0-0.010</t>
         </is>
       </c>
     </row>
@@ -843,7 +843,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>x10E9/L</t>
+          <t>10^9/L</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.8~6.3</t>
+          <t>1.8-6.3</t>
         </is>
       </c>
     </row>
@@ -875,7 +875,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>x10E9/L</t>
+          <t>10^9/L</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -885,7 +885,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.1~3.2</t>
+          <t>1.1-3.2</t>
         </is>
       </c>
     </row>
@@ -902,12 +902,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.650</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>x10E9/L</t>
+          <t>10^9/L</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -917,14 +917,14 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.1~0.6</t>
+          <t>0.1-0.6</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>17嗜酸性粒细胞绝对值</t>
+          <t>嗜酸性粒细胞绝对值</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -934,12 +934,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>5.610</t>
+          <t>5.61</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>x10E9/L</t>
+          <t>10^9/L</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -949,14 +949,14 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.02~0.52</t>
+          <t>0.02-0.52</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>18嗜碱性粒细胞绝对值</t>
+          <t>嗜碱性粒细胞绝对值</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -966,12 +966,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.160</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>x10E9/L</t>
+          <t>10^9/L</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0~0.06</t>
+          <t>0-0.06</t>
         </is>
       </c>
     </row>
